--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heather Musson\Documents\Python\Custom-Email-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Documents/Projects/Custom-Email-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0939FFB-6C7F-452D-AB09-7C72E6294B8D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A5EA8C-CD89-6D48-B4C1-61E67C42A188}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F91D9ACD-DEE2-4782-A70D-4F189F1CCECA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220" xr2:uid="{F91D9ACD-DEE2-4782-A70D-4F189F1CCECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>heather</t>
-  </si>
-  <si>
-    <t>havmusso@uwaterloo.ca</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,26 +386,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBDF87C-9518-47A3-9EC4-F77D082612B9}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{63AF6F4B-9720-4875-B545-901BA513EC57}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>